--- a/output_df_xlsx.xlsx
+++ b/output_df_xlsx.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TotalWorld" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Canada" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,4 +424,4094 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BG34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NorthAmerica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OilProduction-Barrels</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>920</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1194</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1306</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1473</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1582</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1829</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2114</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1735</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1598</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1608</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1597</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1835</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1764</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1610</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1590</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1661</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1775</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1812.795210993652</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1805.117461641927</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1908.769948215802</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2002.418513987413</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1961.456228268682</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1967.735671104963</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1983.505343264505</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2065.579059828207</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2189.010302795238</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2281.334788803814</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2402.127812899821</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2479.917423602477</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2587.590282844393</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2672.381339113716</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2604.399594977693</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2703.401902367345</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2727.958125804735</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2858.16410114571</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3003.470791979386</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3079.881445937281</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3040.896027523204</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>3208.384209834919</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3290.189660693014</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3207.035297559538</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3202.39768859543</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>3332.079800247055</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3514.82206603947</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3740.237677357928</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4000.410964587072</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>4270.529902644397</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>4388.135577667829</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>4463.638847208867</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4813.03335135662</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>5243.879959117511</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>5372.417032263666</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>5130.296403507786</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>5413.774174978509</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>5575.659910850348</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GasProduction-Bcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>54.01627500000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>59.05500000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>66.675</v>
+      </c>
+      <c r="J7" t="n">
+        <v>71.4375</v>
+      </c>
+      <c r="K7" t="n">
+        <v>69.95541</v>
+      </c>
+      <c r="L7" t="n">
+        <v>71.45655000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>72.08520000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>75.72375000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>73.0758</v>
+      </c>
+      <c r="P7" t="n">
+        <v>77.05725000000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>71.22794999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>68.82765000000001</v>
+      </c>
+      <c r="S7" t="n">
+        <v>72.24712500000001</v>
+      </c>
+      <c r="T7" t="n">
+        <v>67.95135000000001</v>
+      </c>
+      <c r="U7" t="n">
+        <v>74.47597500000001</v>
+      </c>
+      <c r="V7" t="n">
+        <v>80.513682</v>
+      </c>
+      <c r="W7" t="n">
+        <v>75.51515250000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>81.8565165</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>94.52686199999999</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>100.42693275</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>103.4477865</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>108.8785605</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>119.964708</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>132.06402975</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>142.94710425</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>152.74125</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>153.918075</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>159.7309</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>165.6041</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>170.5402</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>176.304675</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>179.419225</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>180.722575</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>176.047</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>176.7352</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>179.15245</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>179.3974</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>174.679125</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>166.4916</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>155.050825</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>149.591075</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>151.071325</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>150.3052</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>151.92035</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>158.9916</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>160.755675</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>165.03625</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>171.268475</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>176.776825</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>169.62695</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>165.613</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>172.348725</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>185.0163615173694</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CoalProduction-Tonnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>40.088</v>
+      </c>
+      <c r="S10" t="n">
+        <v>42.907</v>
+      </c>
+      <c r="T10" t="n">
+        <v>44.807</v>
+      </c>
+      <c r="U10" t="n">
+        <v>57.402</v>
+      </c>
+      <c r="V10" t="n">
+        <v>60.853</v>
+      </c>
+      <c r="W10" t="n">
+        <v>57.04800000000001</v>
+      </c>
+      <c r="X10" t="n">
+        <v>61.207</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>70.643</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>70.527</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>68.33200000000001</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>71.13419999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>65.6134</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>69.0294</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>72.8233</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>74.9802</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>75.87939999999999</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>78.76000000000001</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>75.2681</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>72.35769999999999</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>69.10430000000001</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>70.4815</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>66.9982</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>62.5796</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>66.2064</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>68.43089999999999</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67.41080000000001</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>68.9543</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>68.39580000000001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>64.6377</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>67.97369999999999</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67.45410000000001</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>67.3005</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>68.41810000000001</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>68.30510000000001</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>62.35519999999999</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>62.3515</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>60.59609999999999</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>55.04750000000001</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>53.1655</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>46.1459</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>45.08994618383601</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NuclearGeneration-TWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.267</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.211</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.254</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.696</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="M13" t="n">
+        <v>17.416</v>
+      </c>
+      <c r="N13" t="n">
+        <v>26.342</v>
+      </c>
+      <c r="O13" t="n">
+        <v>31.202</v>
+      </c>
+      <c r="P13" t="n">
+        <v>35.271</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>38.032</v>
+      </c>
+      <c r="R13" t="n">
+        <v>40.067</v>
+      </c>
+      <c r="S13" t="n">
+        <v>38.337</v>
+      </c>
+      <c r="T13" t="n">
+        <v>48.61</v>
+      </c>
+      <c r="U13" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="V13" t="n">
+        <v>60.521</v>
+      </c>
+      <c r="W13" t="n">
+        <v>71.267</v>
+      </c>
+      <c r="X13" t="n">
+        <v>77.261</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>82.867</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>79.31684210526315</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>84.33894736842105</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>80.0221052631579</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>93.28421052631579</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>107.0842105263158</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>97.16421052631578</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>92.12210526315789</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>81.95473684210526</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>70.99263157894737</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>72.98</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>72.29368421052631</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>76.16210526315788</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>74.37157894736842</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>89.75789473684209</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>91.39989052631577</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>97.28264631578946</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>92.83203263157894</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>95.35264736842105</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>89.46503052631577</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>90.02798736842105</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>92.93812210526316</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>94.2025147368421</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>102.7204536842105</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>106.5345336842105</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>101.1008347368421</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>100.7234863157895</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>100.59476</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>100.0311536842105</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>100.4939536842105</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>97.5125989473684</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>91.98487578947368</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>86.6419495242999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HydroGeneration-TWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>118.088</v>
+      </c>
+      <c r="C16" t="n">
+        <v>131</v>
+      </c>
+      <c r="D16" t="n">
+        <v>133.924</v>
+      </c>
+      <c r="E16" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>150.638</v>
+      </c>
+      <c r="G16" t="n">
+        <v>158.137</v>
+      </c>
+      <c r="H16" t="n">
+        <v>162.461</v>
+      </c>
+      <c r="I16" t="n">
+        <v>181.639</v>
+      </c>
+      <c r="J16" t="n">
+        <v>194.654</v>
+      </c>
+      <c r="K16" t="n">
+        <v>210.667</v>
+      </c>
+      <c r="L16" t="n">
+        <v>202.47</v>
+      </c>
+      <c r="M16" t="n">
+        <v>212.689</v>
+      </c>
+      <c r="N16" t="n">
+        <v>220.147</v>
+      </c>
+      <c r="O16" t="n">
+        <v>235.254</v>
+      </c>
+      <c r="P16" t="n">
+        <v>244.121</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>251.148</v>
+      </c>
+      <c r="R16" t="n">
+        <v>266.015</v>
+      </c>
+      <c r="S16" t="n">
+        <v>257.795</v>
+      </c>
+      <c r="T16" t="n">
+        <v>265.952</v>
+      </c>
+      <c r="U16" t="n">
+        <v>286.123</v>
+      </c>
+      <c r="V16" t="n">
+        <v>303.645</v>
+      </c>
+      <c r="W16" t="n">
+        <v>310.635</v>
+      </c>
+      <c r="X16" t="n">
+        <v>316.206</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>307.435</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>290.4497444444444</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>295.6833232323233</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>307.2759919191919</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>315.1746545454546</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>322.213897979798</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>327.8555808080808</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>334.0597343434343</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>354.5920747474748</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>348.6796212121213</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>330.8699252525253</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>345.0007828282829</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>356.7600777777779</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>331.5210292929293</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>349.2746393939394</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>336.1393646464647</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>338.3983606060606</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>361.9557494949495</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>352.8872858585859</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>367.6214595959597</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>377.4877303030303</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>368.687405050505</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>351.384803030303</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>375.7237242424243</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>380.2671363636364</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>391.7888717171718</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>382.5013787878789</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>382.1932565656566</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>385.4324252525253</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>394.5873848484849</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>385.8939616161617</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>381.7703232323233</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>386.5447363636364</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>382.7943202020202</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>398.438181741671</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Renewablepower-TWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3.478</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3.955919191919192</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>3.985919191919192</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4.526052632</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>4.878052632</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5.794052632000001</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7.20070790761281</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7.596409537285307</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.237166888359386</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9.059358985751958</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.118411329679406</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9.197463354355932</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>10.02072814838452</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>10.47384090084341</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>10.13008352103511</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10.76378947368421</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>10.73986822966507</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>11.43211197235513</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>12.02435668261563</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>11.80248045720361</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>15.69270835725678</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>19.27730536948432</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>20.97407309941521</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>23.10611389686337</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>23.68004385964912</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>24.7325159702286</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>39.84852137161084</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>46.32496255183413</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>46.23257143009038</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>47.80993455608719</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>47.26265491759702</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>49.59120063795854</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>49.78545401438497</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>52.05936123544494</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SolarGeneration-TWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.002052632</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.002052632</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.002052632</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.003842105</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.005894737</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.006947368</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.010105263</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.01326315789473684</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.01642105263157895</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.01957894736842106</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.02273684210526316</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.02278947368421053</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.01426315789473684</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2555555555555556</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.5717151515151516</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.8808070707070709</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.498989898989899</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>2.12020101010101</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2.894951515151515</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>4.032322222222223</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>3.573738383838384</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>3.796969696969697</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>4.07979797979798</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4.280405050505051</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>5.166626262626264</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>6.013632323232324</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WindGeneration-TWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.001919191919191919</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.001919191919191919</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.567454545454545</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2.473065656565657</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>3.007278787878788</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3.788514141414141</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>6.641651515151516</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.72419191919192</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>10.18857373737374</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>11.31148787878788</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>11.14544343434343</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>12.8170696969697</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>26.96639090909091</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>30.93311717171717</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>31.51361515151515</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>33.4713595959596</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>32.87557272727273</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>35.7644797979798</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>34.75673232323233</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>37.52576880675294</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GeoBiomassOther-TWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3.477</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>4.817</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5.733000000000001</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.13786580261281</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.528514800285307</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8.168219520359386</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>8.987253722751959</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>8.943148171784667</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>8.917042301724354</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>9.672149201016094</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>10.04610405873814</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>9.417294047350902</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>9.804526315789474</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>9.155413684210526</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>8.938046315789473</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>8.99107789473684</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>7.978966315789473</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>8.942056842105263</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>10.29755789473684</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>10.21378421052632</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>10.91381894736842</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>11.03561052631579</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9.795245263157895</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>9.98717894736842</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>11.35952315789474</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>11.14521789473684</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>10.54160526315789</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>10.30728421052632</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>9.546315789473685</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>9.862095428526379</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>8.519960105459669</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Biofuelsproduction-Kboed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.9315666395743333</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.027527392014726</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2.137123467258765</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.191921504880785</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>2.191921504880785</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>2.191921504880785</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.411113655368863</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3.092433537971631</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>9.025953675712939</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>9.658047617686567</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>14.06936466342015</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>15.07595517797112</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>17.79246858376278</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>17.40766620151991</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>18.70468812301043</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>21.90592060885913</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>22.25032750640765</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>23.3453031327282</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>22.31703105234823</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>21.19597583336595</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>23.31024607288724</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>21.9284211086625</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>21.77862652622276</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>21.38570741790644</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ElectricityGeneration</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1970</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1971</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1974</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1975</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1976</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1980</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1982</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1983</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1985</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1986</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1990</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1991</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1992</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Генерация</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>459.0164002</v>
+      </c>
+      <c r="W34" t="n">
+        <v>468.5840330000001</v>
+      </c>
+      <c r="X34" t="n">
+        <v>496.3976998</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>506.0157646</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>498.0925865497048</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>480.5932424242396</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>506.9948584795292</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>518.6268124406096</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>530.2321611381105</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>553.0548439663934</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>557.8686930865186</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>571.6216013110633</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>572.3414404863013</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>561.9913125520447</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>577.7736449502214</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>603.8161068624004</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>587.7546027679467</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>599.7919546433794</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>588.2696299697212</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>598.5096469671209</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>620.479798247672</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>608.4283100313834</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>634.1848104611481</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>635.1004482231485</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>613.8776750517055</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>607.0118484563803</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>638.2813280492533</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>636.5491305887398</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>655.6810144223218</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>652.9525467218878</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>661.0880212762602</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>668.1542397115468</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>669.6085119774999</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>661.5159423295777</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>656.0228780706899</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>653.352009067243</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>646.7810263499649</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>659.6443349191334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>